--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332615.903574291</v>
+        <v>1370849.321322422</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6735338.396606729</v>
+        <v>6763715.796844512</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>329.9041245198146</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>268.5750544254427</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>34.59567488718302</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>322.6492950626189</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>430.8371688139011</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>72.21462998383448</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>63.30706734560965</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>111.5098183264947</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.2277202765949</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>132.7957673084552</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.49380289235356</v>
+        <v>85.5532963163069</v>
       </c>
     </row>
     <row r="14">
@@ -1613,10 +1613,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>161.838486137798</v>
       </c>
       <c r="F14" t="n">
-        <v>155.577622560264</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>16.055124561532</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>122.1591039832983</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>107.8437233964084</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888556</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>90.30617524481308</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.550686977299</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>144.6367272133239</v>
       </c>
     </row>
     <row r="23">
@@ -2479,10 +2479,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>235.7170969895081</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2713,25 +2713,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>116.0434079398614</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392847715</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3244,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855479</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>122.974276743058</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3667,16 +3667,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>53.90045570694525</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3746,7 +3746,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>161.8384861377976</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>211.0659068138787</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225747</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>179.086131146671</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>33.08339867820333</v>
       </c>
       <c r="T44" t="n">
-        <v>32.67077719907091</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4043,7 +4043,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633441</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,19 +4135,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>122.6391170798904</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>46.45303019605535</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1666.462003271223</v>
       </c>
       <c r="C2" t="n">
-        <v>1226.179759784392</v>
+        <v>1632.359934495051</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>1196.450149669495</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>762.6754048277903</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>334.8079752369981</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>334.8079752369981</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257659</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194552</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.171933067591</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.171933067591</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.883999304518</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1708.068948755955</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1692.96688937567</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1688.721169715727</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400185</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067191</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>485.7428345149559</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>1124.735981292096</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>952.1742697753206</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>786.2962769768433</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>616.5382732275806</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>439.8312191893368</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>274.2399442151644</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.337769905539</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>320.4362752513499</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>738.646157019311</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1198.130024200224</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1640.388827357869</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2060.05807658365</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716087</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2103.231844014084</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1857.352397592539</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1578.919396845644</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1543.974270696975</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1543.974270696975</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1543.974270696975</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>1316.554600011083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1381.691946481611</v>
       </c>
       <c r="C5" t="n">
-        <v>924.8126511555888</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D5" t="n">
-        <v>892.9432703704374</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1443.580169393044</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1443.580169393044</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1443.580169393044</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1443.580169393044</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>418.0989517035836</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526436</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>944.829865684731</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939388</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172022</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5048,19 +5048,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>3292.836108510713</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.836108510713</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2532.736396587283</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2254.303395840388</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1967.347887710819</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1695.32148329711</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1449.929728630523</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168568</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
         <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526436</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>944.829865684731</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397514</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5288,16 +5288,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653476</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.109260520273</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>879.5475490034974</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>713.6695562050198</v>
+        <v>837.3544329777444</v>
       </c>
       <c r="E16" t="n">
-        <v>543.9115524557571</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
-        <v>367.2044984175134</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>201.613223443341</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
         <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2554.154217881911</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2275.721217135017</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1988.765709005447</v>
+        <v>1885.03091509228</v>
       </c>
       <c r="W16" t="n">
-        <v>1716.739304591739</v>
+        <v>1613.004510678571</v>
       </c>
       <c r="X16" t="n">
-        <v>1471.347549925151</v>
+        <v>1367.612756011984</v>
       </c>
       <c r="Y16" t="n">
-        <v>1243.92787923926</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181363</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364786</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539231</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697526</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>609.3310231067335</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>207.9331917299974</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376273</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787306</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366617</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566627</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.6593645443554</v>
+        <v>811.7546776883959</v>
       </c>
       <c r="C19" t="n">
-        <v>614.0976530275803</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>448.2196602291031</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>278.4616564798403</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>278.4616564798403</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>278.4616564798403</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905995</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.2713211591</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.31581302953</v>
+        <v>1748.411126173571</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.289408615822</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.897653949234</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y19" t="n">
-        <v>978.4779832633426</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832885</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1063.47744154276</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6148,13 +6148,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066054</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745665</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N25" t="n">
         <v>1783.551532113124</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1510.313048406387</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1264.9212937398</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937635</v>
+        <v>949.5782250957672</v>
       </c>
       <c r="C28" t="n">
-        <v>790.3368563937635</v>
+        <v>777.0165135789921</v>
       </c>
       <c r="D28" t="n">
-        <v>673.1212928181459</v>
+        <v>611.1385207805148</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312521</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930082</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6619,22 +6619,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354698</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066056</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745667</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P31" t="n">
         <v>2550.727675309247</v>
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6883,13 +6883,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
         <v>1889.413325832886</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7096,7 +7096,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369035</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601674</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163888</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734193</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567589</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526185</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526185</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526185</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.4755408556</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172617</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106443</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517477</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096787</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.35224639644</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.9095056074548</v>
+        <v>1175.794137292996</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906799</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922026</v>
+        <v>837.3544329777441</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429398</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F43" t="n">
-        <v>266.004743504696</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305237</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2698.833909390639</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T43" t="n">
-        <v>2452.954462969094</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U43" t="n">
-        <v>2174.521462222199</v>
+        <v>2127.379689494032</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.56595409263</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678921</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012334</v>
+        <v>1595.032426697875</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326442</v>
+        <v>1367.612756011983</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
         <v>96.73597668111518</v>
@@ -7658,40 +7658,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R44" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055759</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.798049006192</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.575746323208</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.958796257035</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668069</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.96087824738</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.8119928040988</v>
+        <v>1009.916144494519</v>
       </c>
       <c r="C46" t="n">
-        <v>660.9340967638054</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="D46" t="n">
-        <v>495.0561039653281</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E46" t="n">
-        <v>325.2981002160653</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F46" t="n">
-        <v>325.2981002160653</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G46" t="n">
         <v>325.2981002160653</v>
@@ -7843,13 +7843,13 @@
         <v>1721.468441289274</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875565</v>
+        <v>1674.546188565986</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.050282208978</v>
+        <v>1429.154433899398</v>
       </c>
       <c r="Y46" t="n">
-        <v>976.6306115230859</v>
+        <v>1201.734763213506</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>90.34648051320363</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>226.0938963909753</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,19 +8377,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,13 +8696,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>860.035541581457</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>798.0672825265365</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N41" t="n">
-        <v>222.8350353226351</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>268.011132734621</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>143.6516710866792</v>
+        <v>139.5921776627259</v>
       </c>
     </row>
     <row r="14">
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>267.5985112554898</v>
       </c>
       <c r="F14" t="n">
-        <v>268.0111327346203</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>122.4480280049972</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>178.3951296148074</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>48.19697732171615</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>80.50874676570886</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>33.58904338006332</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>48.17580493063113</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,10 +25360,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>34.67467827192533</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>267.5985112554902</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.80064804181302</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,19 +25834,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>96.56253959275475</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>49.73195639979871</v>
       </c>
       <c r="T44" t="n">
-        <v>185.1957776566209</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>48.19697732171688</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>222.853110173516</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>574079.5892690734</v>
+        <v>580096.4831692588</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>574079.5892690734</v>
+        <v>584056.7909152074</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>574079.5892690734</v>
+        <v>584056.7909152074</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>569740.8034988866</v>
+        <v>569740.8034988865</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>577780.4003384517</v>
+        <v>593784.5164596264</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>593784.5164596263</v>
+        <v>593784.5164596264</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>593784.5164596264</v>
+        <v>593784.5164596263</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593784.5164596263</v>
+        <v>593784.5164596261</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>585744.9196200611</v>
+        <v>569740.8034988865</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>569740.8034988864</v>
+        <v>569740.8034988865</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
         <v>366504.8260294654</v>
       </c>
       <c r="F2" t="n">
-        <v>366504.8260294655</v>
+        <v>366504.8260294654</v>
       </c>
       <c r="G2" t="n">
-        <v>371676.5655695099</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="J2" t="n">
         <v>381971.7484995804</v>
@@ -26344,16 +26344,16 @@
         <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="O2" t="n">
-        <v>376800.0089595359</v>
+        <v>366504.8260294654</v>
       </c>
       <c r="P2" t="n">
-        <v>366504.8260294652</v>
+        <v>366504.8260294654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745929</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>18928.52796216478</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256749</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393348</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>166144.7923478713</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.49019908699</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.490199087</v>
+        <v>52352.49019908699</v>
       </c>
       <c r="G4" t="n">
-        <v>53091.2347512819</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.8251096228</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
@@ -26454,10 +26454,10 @@
         <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>53823.08055742784</v>
+        <v>52352.49019908699</v>
       </c>
       <c r="P4" t="n">
-        <v>52352.49019908694</v>
+        <v>52352.49019908696</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696287</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.236083198</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6605.961527550535</v>
+        <v>-37126.83289198123</v>
       </c>
       <c r="C6" t="n">
-        <v>135585.3391321593</v>
+        <v>135294.0531755399</v>
       </c>
       <c r="D6" t="n">
-        <v>135585.3391321593</v>
+        <v>166484.0881129993</v>
       </c>
       <c r="E6" t="n">
-        <v>6277.971530693409</v>
+        <v>78821.35978781963</v>
       </c>
       <c r="F6" t="n">
-        <v>240632.9935527309</v>
+        <v>240556.4349979341</v>
       </c>
       <c r="G6" t="n">
-        <v>237332.7749751354</v>
+        <v>230739.9324826178</v>
       </c>
       <c r="H6" t="n">
-        <v>237288.9298042018</v>
+        <v>249668.4604447825</v>
       </c>
       <c r="I6" t="n">
-        <v>249691.6847841651</v>
+        <v>249668.4604447826</v>
       </c>
       <c r="J6" t="n">
-        <v>138677.219439175</v>
+        <v>100276.8640191076</v>
       </c>
       <c r="K6" t="n">
-        <v>249691.6847841651</v>
+        <v>224821.5236608491</v>
       </c>
       <c r="L6" t="n">
-        <v>249691.6847841651</v>
+        <v>249668.4604447825</v>
       </c>
       <c r="M6" t="n">
-        <v>54090.50550109732</v>
+        <v>114678.5158317791</v>
       </c>
       <c r="N6" t="n">
-        <v>249691.6847841651</v>
+        <v>249668.4604447826</v>
       </c>
       <c r="O6" t="n">
-        <v>246662.69231891</v>
+        <v>240556.434997934</v>
       </c>
       <c r="P6" t="n">
-        <v>240632.9935527307</v>
+        <v>240556.4349979341</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,22 +27379,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>101.6465624574853</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>90.41572614006907</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>249.4902781610908</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>111.111753025792</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0.7135181633988168</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>171.2060219734948</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>193.3230123105436</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>63.43016517136664</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28029,7 +28029,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-1.048121589519724e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>90.34648051320363</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>226.0938963909753</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>860.035541581457</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,16 +35893,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>798.0672825265365</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157514</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,13 +36054,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.891691782158</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36516,13 +36516,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960969</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908098</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N41" t="n">
-        <v>222.8350353226351</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
